--- a/database_excel_files/CCMIdToSuggestionId.xlsx
+++ b/database_excel_files/CCMIdToSuggestionId.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE728127-DA1D-464A-9C88-2C84F346E5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DE728127-DA1D-464A-9C88-2C84F346E5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00C19FE3-6EAF-472A-B219-B1B7A1813C06}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,31 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>suggestionId</t>
   </si>
   <si>
     <t>ccmId</t>
   </si>
-  <si>
-    <t>ccm1</t>
-  </si>
-  <si>
-    <t>suggestion1</t>
-  </si>
-  <si>
-    <t>ccm2</t>
-  </si>
-  <si>
-    <t>suggestion2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,51 +348,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.5703125"/>
-    <col min="2" max="2" customWidth="true" width="26.85546875"/>
-    <col min="3" max="3" customWidth="true" width="27.42578125"/>
-    <col min="4" max="4" customWidth="true" width="22.42578125"/>
-    <col min="5" max="5" customWidth="true" width="21.85546875"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
